--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="H2">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="I2">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="J2">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.12625998184777</v>
+        <v>1.365419</v>
       </c>
       <c r="N2">
-        <v>1.12625998184777</v>
+        <v>4.096257</v>
       </c>
       <c r="O2">
-        <v>0.008089110229415782</v>
+        <v>0.00919820408653374</v>
       </c>
       <c r="P2">
-        <v>0.008089110229415782</v>
+        <v>0.009372688028951477</v>
       </c>
       <c r="Q2">
-        <v>1.462641516798561</v>
+        <v>2.063303766766</v>
       </c>
       <c r="R2">
-        <v>1.462641516798561</v>
+        <v>18.569733900894</v>
       </c>
       <c r="S2">
-        <v>0.0001648550299947594</v>
+        <v>0.0002062098316608322</v>
       </c>
       <c r="T2">
-        <v>0.0001648550299947594</v>
+        <v>0.0002328135826384404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="H3">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="I3">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="J3">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.50914541956442</v>
+        <v>4.728754666666667</v>
       </c>
       <c r="N3">
-        <v>4.50914541956442</v>
+        <v>14.186264</v>
       </c>
       <c r="O3">
-        <v>0.03238592769626789</v>
+        <v>0.03185546011821194</v>
       </c>
       <c r="P3">
-        <v>0.03238592769626789</v>
+        <v>0.03245973745503403</v>
       </c>
       <c r="Q3">
-        <v>5.85589775205955</v>
+        <v>7.145687379365334</v>
       </c>
       <c r="R3">
-        <v>5.85589775205955</v>
+        <v>64.311186414288</v>
       </c>
       <c r="S3">
-        <v>0.0006600210567487776</v>
+        <v>0.0007141512632962543</v>
       </c>
       <c r="T3">
-        <v>0.0006600210567487776</v>
+        <v>0.0008062860670350356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="H4">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="I4">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="J4">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.2190777698987</v>
+        <v>62.80666966666666</v>
       </c>
       <c r="N4">
-        <v>54.2190777698987</v>
+        <v>188.420009</v>
       </c>
       <c r="O4">
-        <v>0.3894163902533635</v>
+        <v>0.4230998437765316</v>
       </c>
       <c r="P4">
-        <v>0.3894163902533635</v>
+        <v>0.4311257723256207</v>
       </c>
       <c r="Q4">
-        <v>70.41276031017028</v>
+        <v>94.90803782667534</v>
       </c>
       <c r="R4">
-        <v>70.41276031017028</v>
+        <v>854.172340440078</v>
       </c>
       <c r="S4">
-        <v>0.007936256136332273</v>
+        <v>0.009485258941863875</v>
       </c>
       <c r="T4">
-        <v>0.007936256136332273</v>
+        <v>0.01070898074414208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="H5">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="I5">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="J5">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.1327149741295</v>
+        <v>71.25284333333333</v>
       </c>
       <c r="N5">
-        <v>71.1327149741295</v>
+        <v>213.75853</v>
       </c>
       <c r="O5">
-        <v>0.5108948037018344</v>
+        <v>0.4799978575996196</v>
       </c>
       <c r="P5">
-        <v>0.5108948037018344</v>
+        <v>0.4891031044236887</v>
       </c>
       <c r="Q5">
-        <v>92.37801555646783</v>
+        <v>107.6711691008067</v>
       </c>
       <c r="R5">
-        <v>92.37801555646783</v>
+        <v>969.0405219072601</v>
       </c>
       <c r="S5">
-        <v>0.01041197063703698</v>
+        <v>0.01076082640502462</v>
       </c>
       <c r="T5">
-        <v>0.01041197063703698</v>
+        <v>0.01214911300458603</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="H6">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="I6">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="J6">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.24442930255297</v>
+        <v>8.290399499999999</v>
       </c>
       <c r="N6">
-        <v>8.24442930255297</v>
+        <v>16.580799</v>
       </c>
       <c r="O6">
-        <v>0.05921376811911847</v>
+        <v>0.05584863441910305</v>
       </c>
       <c r="P6">
-        <v>0.05921376811911847</v>
+        <v>0.03793869776670523</v>
       </c>
       <c r="Q6">
-        <v>10.70680373499631</v>
+        <v>12.527738750043</v>
       </c>
       <c r="R6">
-        <v>10.70680373499631</v>
+        <v>75.166432500258</v>
       </c>
       <c r="S6">
-        <v>0.001206769007038864</v>
+        <v>0.001252041963160061</v>
       </c>
       <c r="T6">
-        <v>0.001206769007038864</v>
+        <v>0.0009423811099249562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="H7">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="I7">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="J7">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.12625998184777</v>
+        <v>1.365419</v>
       </c>
       <c r="N7">
-        <v>1.12625998184777</v>
+        <v>4.096257</v>
       </c>
       <c r="O7">
-        <v>0.008089110229415782</v>
+        <v>0.00919820408653374</v>
       </c>
       <c r="P7">
-        <v>0.008089110229415782</v>
+        <v>0.009372688028951477</v>
       </c>
       <c r="Q7">
-        <v>48.10850665531174</v>
+        <v>63.01922173571933</v>
       </c>
       <c r="R7">
-        <v>48.10850665531174</v>
+        <v>567.1729956214739</v>
       </c>
       <c r="S7">
-        <v>0.005422332961684122</v>
+        <v>0.006298240382649933</v>
       </c>
       <c r="T7">
-        <v>0.005422332961684122</v>
+        <v>0.007110795329170268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="H8">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="I8">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="J8">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.50914541956442</v>
+        <v>4.728754666666667</v>
       </c>
       <c r="N8">
-        <v>4.50914541956442</v>
+        <v>14.186264</v>
       </c>
       <c r="O8">
-        <v>0.03238592769626789</v>
+        <v>0.03185546011821194</v>
       </c>
       <c r="P8">
-        <v>0.03238592769626789</v>
+        <v>0.03245973745503403</v>
       </c>
       <c r="Q8">
-        <v>192.6093938550364</v>
+        <v>218.2498111367165</v>
       </c>
       <c r="R8">
-        <v>192.6093938550364</v>
+        <v>1964.248300230448</v>
       </c>
       <c r="S8">
-        <v>0.02170909757214113</v>
+        <v>0.02181223023939489</v>
       </c>
       <c r="T8">
-        <v>0.02170909757214113</v>
+        <v>0.02462629170717959</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="H9">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="I9">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="J9">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.2190777698987</v>
+        <v>62.80666966666666</v>
       </c>
       <c r="N9">
-        <v>54.2190777698987</v>
+        <v>188.420009</v>
       </c>
       <c r="O9">
-        <v>0.3894163902533635</v>
+        <v>0.4230998437765316</v>
       </c>
       <c r="P9">
-        <v>0.3894163902533635</v>
+        <v>0.4311257723256207</v>
       </c>
       <c r="Q9">
-        <v>2315.982904283461</v>
+        <v>2898.764000065726</v>
       </c>
       <c r="R9">
-        <v>2315.982904283461</v>
+        <v>26088.87600059154</v>
       </c>
       <c r="S9">
-        <v>0.261035548880555</v>
+        <v>0.2897070446466283</v>
       </c>
       <c r="T9">
-        <v>0.261035548880555</v>
+        <v>0.3270830223590512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="H10">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="I10">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="J10">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>71.1327149741295</v>
+        <v>71.25284333333333</v>
       </c>
       <c r="N10">
-        <v>71.1327149741295</v>
+        <v>213.75853</v>
       </c>
       <c r="O10">
-        <v>0.5108948037018344</v>
+        <v>0.4799978575996196</v>
       </c>
       <c r="P10">
-        <v>0.5108948037018344</v>
+        <v>0.4891031044236887</v>
       </c>
       <c r="Q10">
-        <v>3038.453595881955</v>
+        <v>3288.586678026162</v>
       </c>
       <c r="R10">
-        <v>3038.453595881955</v>
+        <v>29597.28010223546</v>
       </c>
       <c r="S10">
-        <v>0.3424655685852449</v>
+        <v>0.3286665377152574</v>
       </c>
       <c r="T10">
-        <v>0.3424655685852449</v>
+        <v>0.3710687968782971</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="H11">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="I11">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="J11">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.24442930255297</v>
+        <v>8.290399499999999</v>
       </c>
       <c r="N11">
-        <v>8.24442930255297</v>
+        <v>16.580799</v>
       </c>
       <c r="O11">
-        <v>0.05921376811911847</v>
+        <v>0.05584863441910305</v>
       </c>
       <c r="P11">
-        <v>0.05921376811911847</v>
+        <v>0.03793869776670523</v>
       </c>
       <c r="Q11">
-        <v>352.1630781202048</v>
+        <v>382.633114354053</v>
       </c>
       <c r="R11">
-        <v>352.1630781202048</v>
+        <v>2295.798686124318</v>
       </c>
       <c r="S11">
-        <v>0.03969247019162028</v>
+        <v>0.03824095674602507</v>
       </c>
       <c r="T11">
-        <v>0.03969247019162028</v>
+        <v>0.02878302510880325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="H12">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="I12">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="J12">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.12625998184777</v>
+        <v>1.365419</v>
       </c>
       <c r="N12">
-        <v>1.12625998184777</v>
+        <v>4.096257</v>
       </c>
       <c r="O12">
-        <v>0.008089110229415782</v>
+        <v>0.00919820408653374</v>
       </c>
       <c r="P12">
-        <v>0.008089110229415782</v>
+        <v>0.009372688028951477</v>
       </c>
       <c r="Q12">
-        <v>22.19777787084737</v>
+        <v>0.04139677324199999</v>
       </c>
       <c r="R12">
-        <v>22.19777787084737</v>
+        <v>0.3725709591779999</v>
       </c>
       <c r="S12">
-        <v>0.0025019222377369</v>
+        <v>4.13725878808158E-06</v>
       </c>
       <c r="T12">
-        <v>0.0025019222377369</v>
+        <v>4.671018995543842E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="H13">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="I13">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="J13">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.50914541956442</v>
+        <v>4.728754666666667</v>
       </c>
       <c r="N13">
-        <v>4.50914541956442</v>
+        <v>14.186264</v>
       </c>
       <c r="O13">
-        <v>0.03238592769626789</v>
+        <v>0.03185546011821194</v>
       </c>
       <c r="P13">
-        <v>0.03238592769626789</v>
+        <v>0.03245973745503403</v>
       </c>
       <c r="Q13">
-        <v>88.8720277947058</v>
+        <v>0.143366383984</v>
       </c>
       <c r="R13">
-        <v>88.8720277947058</v>
+        <v>1.290297455856</v>
       </c>
       <c r="S13">
-        <v>0.01001680906737798</v>
+        <v>1.432826246108224E-05</v>
       </c>
       <c r="T13">
-        <v>0.01001680906737798</v>
+        <v>1.617679472254787E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="H14">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="I14">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="J14">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.2190777698987</v>
+        <v>62.80666966666666</v>
       </c>
       <c r="N14">
-        <v>54.2190777698987</v>
+        <v>188.420009</v>
       </c>
       <c r="O14">
-        <v>0.3894163902533635</v>
+        <v>0.4230998437765316</v>
       </c>
       <c r="P14">
-        <v>0.3894163902533635</v>
+        <v>0.4311257723256207</v>
       </c>
       <c r="Q14">
-        <v>1068.619203466546</v>
+        <v>1.904172610954</v>
       </c>
       <c r="R14">
-        <v>1068.619203466546</v>
+        <v>17.137553498586</v>
       </c>
       <c r="S14">
-        <v>0.1204445852364762</v>
+        <v>0.0001903060130469501</v>
       </c>
       <c r="T14">
-        <v>0.1204445852364762</v>
+        <v>0.0002148579645221337</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="H15">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="I15">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="J15">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>71.1327149741295</v>
+        <v>71.25284333333333</v>
       </c>
       <c r="N15">
-        <v>71.1327149741295</v>
+        <v>213.75853</v>
       </c>
       <c r="O15">
-        <v>0.5108948037018344</v>
+        <v>0.4799978575996196</v>
       </c>
       <c r="P15">
-        <v>0.5108948037018344</v>
+        <v>0.4891031044236887</v>
       </c>
       <c r="Q15">
-        <v>1401.974883059858</v>
+        <v>2.16024370418</v>
       </c>
       <c r="R15">
-        <v>1401.974883059858</v>
+        <v>19.44219333762</v>
       </c>
       <c r="S15">
-        <v>0.1580172644795526</v>
+        <v>0.0002158981618511485</v>
       </c>
       <c r="T15">
-        <v>0.1580172644795526</v>
+        <v>0.0002437518334639473</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.030318</v>
+      </c>
+      <c r="H16">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="J16">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.290399499999999</v>
+      </c>
+      <c r="N16">
+        <v>16.580799</v>
+      </c>
+      <c r="O16">
+        <v>0.05584863441910305</v>
+      </c>
+      <c r="P16">
+        <v>0.03793869776670523</v>
+      </c>
+      <c r="Q16">
+        <v>0.251348332041</v>
+      </c>
+      <c r="R16">
+        <v>1.508089992246</v>
+      </c>
+      <c r="S16">
+        <v>2.512014860499388E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.890731638427334E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.7096195</v>
+      </c>
+      <c r="H17">
+        <v>39.419239</v>
+      </c>
+      <c r="I17">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="J17">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.365419</v>
+      </c>
+      <c r="N17">
+        <v>4.096257</v>
+      </c>
+      <c r="O17">
+        <v>0.00919820408653374</v>
+      </c>
+      <c r="P17">
+        <v>0.009372688028951477</v>
+      </c>
+      <c r="Q17">
+        <v>26.9118889480705</v>
+      </c>
+      <c r="R17">
+        <v>161.471333688423</v>
+      </c>
+      <c r="S17">
+        <v>0.002689616613434894</v>
+      </c>
+      <c r="T17">
+        <v>0.002024408098147224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>19.7096195</v>
+      </c>
+      <c r="H18">
+        <v>39.419239</v>
+      </c>
+      <c r="I18">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="J18">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.728754666666667</v>
+      </c>
+      <c r="N18">
+        <v>14.186264</v>
+      </c>
+      <c r="O18">
+        <v>0.03185546011821194</v>
+      </c>
+      <c r="P18">
+        <v>0.03245973745503403</v>
+      </c>
+      <c r="Q18">
+        <v>93.20195518884935</v>
+      </c>
+      <c r="R18">
+        <v>559.2117311330961</v>
+      </c>
+      <c r="S18">
+        <v>0.009314750353059722</v>
+      </c>
+      <c r="T18">
+        <v>0.007010982886096856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>19.7096195</v>
+      </c>
+      <c r="H19">
+        <v>39.419239</v>
+      </c>
+      <c r="I19">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="J19">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>62.80666966666666</v>
+      </c>
+      <c r="N19">
+        <v>188.420009</v>
+      </c>
+      <c r="O19">
+        <v>0.4230998437765316</v>
+      </c>
+      <c r="P19">
+        <v>0.4311257723256207</v>
+      </c>
+      <c r="Q19">
+        <v>1237.895561192192</v>
+      </c>
+      <c r="R19">
+        <v>7427.373367153152</v>
+      </c>
+      <c r="S19">
+        <v>0.1237172341749925</v>
+      </c>
+      <c r="T19">
+        <v>0.09311891125790521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="H16">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="I16">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="J16">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.24442930255297</v>
-      </c>
-      <c r="N16">
-        <v>8.24442930255297</v>
-      </c>
-      <c r="O16">
-        <v>0.05921376811911847</v>
-      </c>
-      <c r="P16">
-        <v>0.05921376811911847</v>
-      </c>
-      <c r="Q16">
-        <v>162.4917987672158</v>
-      </c>
-      <c r="R16">
-        <v>162.4917987672158</v>
-      </c>
-      <c r="S16">
-        <v>0.01831452892045934</v>
-      </c>
-      <c r="T16">
-        <v>0.01831452892045934</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>19.7096195</v>
+      </c>
+      <c r="H20">
+        <v>39.419239</v>
+      </c>
+      <c r="I20">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="J20">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>71.25284333333333</v>
+      </c>
+      <c r="N20">
+        <v>213.75853</v>
+      </c>
+      <c r="O20">
+        <v>0.4799978575996196</v>
+      </c>
+      <c r="P20">
+        <v>0.4891031044236887</v>
+      </c>
+      <c r="Q20">
+        <v>1404.366430393112</v>
+      </c>
+      <c r="R20">
+        <v>8426.198582358671</v>
+      </c>
+      <c r="S20">
+        <v>0.1403545953174865</v>
+      </c>
+      <c r="T20">
+        <v>0.1056414427073415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>19.7096195</v>
+      </c>
+      <c r="H21">
+        <v>39.419239</v>
+      </c>
+      <c r="I21">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="J21">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.290399499999999</v>
+      </c>
+      <c r="N21">
+        <v>16.580799</v>
+      </c>
+      <c r="O21">
+        <v>0.05584863441910305</v>
+      </c>
+      <c r="P21">
+        <v>0.03793869776670523</v>
+      </c>
+      <c r="Q21">
+        <v>163.4006196479903</v>
+      </c>
+      <c r="R21">
+        <v>653.602478591961</v>
+      </c>
+      <c r="S21">
+        <v>0.01633051556131293</v>
+      </c>
+      <c r="T21">
+        <v>0.008194384231592747</v>
       </c>
     </row>
   </sheetData>
